--- a/passeports/données/tout.xlsx
+++ b/passeports/données/tout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="598">
   <si>
     <t>Madagascar</t>
   </si>
@@ -1798,6 +1798,18 @@
   </si>
   <si>
     <t>Trinidad &amp;  Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data III </t>
+  </si>
+  <si>
+    <t>passeport_coast.csv</t>
+  </si>
+  <si>
+    <t>passeport_power.csv</t>
+  </si>
+  <si>
+    <t>https://www.passportindex.org/comparebyPassport.php?p1=al&amp;fl=&amp;s=yes</t>
   </si>
 </sst>
 </file>
@@ -5246,41 +5258,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>533</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
